--- a/GoNoGo/archivos_prueba/tidyfile.xlsx
+++ b/GoNoGo/archivos_prueba/tidyfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">trial</t>
   </si>
@@ -35,10 +35,16 @@
     <t xml:space="preserve">status</t>
   </si>
   <si>
+    <t xml:space="preserve">file</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test</t>
   </si>
   <si>
     <t xml:space="preserve">Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1018_15y</t>
   </si>
   <si>
     <t xml:space="preserve">Error</t>
@@ -48,6 +54,9 @@
   </si>
   <si>
     <t xml:space="preserve">Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1161_15y</t>
   </si>
 </sst>
 </file>
@@ -401,6 +410,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -419,10 +431,13 @@
         <v>265</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +457,13 @@
         <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +483,13 @@
         <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +509,13 @@
         <v>239</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +535,13 @@
         <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +561,13 @@
         <v>226</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +587,13 @@
         <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +613,13 @@
         <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -597,10 +633,13 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -620,10 +659,13 @@
         <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -643,10 +685,13 @@
         <v>239</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -666,10 +711,13 @@
         <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -689,10 +737,13 @@
         <v>268</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -712,10 +763,13 @@
         <v>197</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -735,10 +789,13 @@
         <v>206</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -758,10 +815,13 @@
         <v>221</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -781,10 +841,13 @@
         <v>187</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -804,10 +867,13 @@
         <v>216</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -827,10 +893,13 @@
         <v>219</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -850,10 +919,13 @@
         <v>223</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -873,10 +945,13 @@
         <v>225</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -896,10 +971,13 @@
         <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +997,13 @@
         <v>228</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -942,10 +1023,13 @@
         <v>250</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -965,10 +1049,13 @@
         <v>286</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -988,10 +1075,13 @@
         <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1011,10 +1101,13 @@
         <v>232</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1034,10 +1127,13 @@
         <v>241</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1057,10 +1153,13 @@
         <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1080,10 +1179,13 @@
         <v>247</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1103,10 +1205,13 @@
         <v>234</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1126,10 +1231,13 @@
         <v>221</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1149,10 +1257,13 @@
         <v>221</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1172,10 +1283,13 @@
         <v>228</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1195,10 +1309,13 @@
         <v>219</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1218,10 +1335,13 @@
         <v>231</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1241,10 +1361,13 @@
         <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1264,10 +1387,13 @@
         <v>226</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1287,10 +1413,13 @@
         <v>249</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1310,10 +1439,13 @@
         <v>270</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1327,10 +1459,13 @@
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -1344,10 +1479,13 @@
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>9</v>
+      <c r="H43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1367,10 +1505,13 @@
         <v>242</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -1390,10 +1531,13 @@
         <v>245</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1413,10 +1557,13 @@
         <v>239</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1436,10 +1583,13 @@
         <v>232</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1453,10 +1603,13 @@
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1476,10 +1629,13 @@
         <v>228</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1493,10 +1649,13 @@
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1516,10 +1675,13 @@
         <v>215</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1533,10 +1695,13 @@
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1556,10 +1721,13 @@
         <v>222</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -1579,10 +1747,13 @@
         <v>226</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -1602,10 +1773,13 @@
         <v>227</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -1619,10 +1793,13 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -1642,10 +1819,13 @@
         <v>256</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -1659,10 +1839,13 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -1682,10 +1865,13 @@
         <v>241</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -1705,10 +1891,13 @@
         <v>238</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -1728,10 +1917,13 @@
         <v>277</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -1745,10 +1937,13 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -1768,10 +1963,13 @@
         <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -1791,10 +1989,13 @@
         <v>184</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -1814,10 +2015,13 @@
         <v>222</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -1831,10 +2035,13 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -1854,10 +2061,13 @@
         <v>247</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -1871,10 +2081,13 @@
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -1894,10 +2107,13 @@
         <v>186</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -1917,10 +2133,13 @@
         <v>182</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -1934,10 +2153,13 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -1957,10 +2179,13 @@
         <v>232</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -1974,10 +2199,13 @@
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -1997,10 +2225,13 @@
         <v>222</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2020,10 +2251,13 @@
         <v>216</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -2043,10 +2277,13 @@
         <v>251</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -2060,10 +2297,13 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -2083,10 +2323,13 @@
         <v>224</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -2106,10 +2349,13 @@
         <v>216</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -2129,10 +2375,13 @@
         <v>231</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -2152,10 +2401,13 @@
         <v>235</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -2169,10 +2421,13 @@
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -2186,10 +2441,13 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -2209,10 +2467,13 @@
         <v>254</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -2232,10 +2493,13 @@
         <v>245</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -2255,10 +2519,13 @@
         <v>265</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -2278,10 +2545,13 @@
         <v>225</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -2301,10 +2571,13 @@
         <v>248</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -2324,10 +2597,13 @@
         <v>259</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -2341,10 +2617,13 @@
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -2364,10 +2643,13 @@
         <v>189</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -2387,10 +2669,13 @@
         <v>184</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -2410,10 +2695,13 @@
         <v>200</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -2427,10 +2715,13 @@
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -2450,10 +2741,13 @@
         <v>211</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -2473,10 +2767,13 @@
         <v>193</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -2490,10 +2787,13 @@
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -2513,10 +2813,13 @@
         <v>232</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -2530,10 +2833,13 @@
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -2553,10 +2859,13 @@
         <v>227</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -2570,10 +2879,13 @@
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -2593,10 +2905,13 @@
         <v>251</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -2616,10 +2931,13 @@
         <v>249</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H103" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -2639,10 +2957,13 @@
         <v>230</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -2662,10 +2983,13 @@
         <v>249</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -2679,10 +3003,13 @@
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -2702,10 +3029,13 @@
         <v>264</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -2725,10 +3055,13 @@
         <v>223</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -2748,10 +3081,13 @@
         <v>248</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -2765,10 +3101,13 @@
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -2788,10 +3127,13 @@
         <v>227</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -2805,10 +3147,13 @@
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -2828,10 +3173,13 @@
         <v>248</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -2851,10 +3199,13 @@
         <v>243</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -2868,10 +3219,13 @@
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -2891,10 +3245,13 @@
         <v>237</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H116" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -2914,10 +3271,13 @@
         <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H117" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -2937,10 +3297,13 @@
         <v>247</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -2954,10 +3317,13 @@
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -2977,10 +3343,13 @@
         <v>263</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -3000,10 +3369,13 @@
         <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H121" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -3023,10 +3395,13 @@
         <v>208</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H122" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -3046,10 +3421,13 @@
         <v>256</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H123" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -3063,10 +3441,13 @@
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -3086,10 +3467,13 @@
         <v>214</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -3109,10 +3493,13 @@
         <v>257</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H126" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -3126,10 +3513,13 @@
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H127" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -3143,10 +3533,13 @@
       <c r="D128"/>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H128" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="129">
@@ -3166,10 +3559,13 @@
         <v>232</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H129" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -3189,10 +3585,13 @@
         <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H130" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -3206,10 +3605,13 @@
       <c r="D131"/>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H131" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -3229,10 +3631,13 @@
         <v>223</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -3252,10 +3657,13 @@
         <v>201</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -3275,10 +3683,13 @@
         <v>234</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H134" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -3292,10 +3703,13 @@
       <c r="D135"/>
       <c r="E135"/>
       <c r="F135" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H135" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -3315,10 +3729,13 @@
         <v>249</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H136" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="137">
@@ -3332,10 +3749,13 @@
       <c r="D137"/>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H137" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -3355,10 +3775,13 @@
         <v>219</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H138" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -3378,10 +3801,13 @@
         <v>194</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H139" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -3401,10 +3827,13 @@
         <v>228</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H140" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="141">
@@ -3424,10 +3853,13 @@
         <v>237</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H141" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -3441,10 +3873,13 @@
       <c r="D142"/>
       <c r="E142"/>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H142" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -3464,10 +3899,13 @@
         <v>225</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H143" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -3481,10 +3919,13 @@
       <c r="D144"/>
       <c r="E144"/>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H144" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -3504,10 +3945,13 @@
         <v>231</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H145" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -3527,10 +3971,13 @@
         <v>227</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H146" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -3550,10 +3997,13 @@
         <v>195</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H147" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -3573,10 +4023,13 @@
         <v>237</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H148" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="149">
@@ -3590,10 +4043,13 @@
       <c r="D149"/>
       <c r="E149"/>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H149" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="150">
@@ -3613,10 +4069,13 @@
         <v>237</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H150" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -3636,10 +4095,13 @@
         <v>211</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H151" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -3659,10 +4121,13 @@
         <v>197</v>
       </c>
       <c r="F152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G152" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="153">
@@ -3682,10 +4147,13 @@
         <v>148</v>
       </c>
       <c r="F153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G153" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -3705,10 +4173,13 @@
         <v>131</v>
       </c>
       <c r="F154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G154" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="155">
@@ -3728,10 +4199,13 @@
         <v>164</v>
       </c>
       <c r="F155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G155" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="156">
@@ -3751,10 +4225,13 @@
         <v>171</v>
       </c>
       <c r="F156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G156" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="157">
@@ -3774,10 +4251,13 @@
         <v>166</v>
       </c>
       <c r="F157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G157" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H157" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="158">
@@ -3797,10 +4277,13 @@
         <v>124</v>
       </c>
       <c r="F158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G158" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H158" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -3820,10 +4303,13 @@
         <v>162</v>
       </c>
       <c r="F159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G159" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="160">
@@ -3843,10 +4329,13 @@
         <v>154</v>
       </c>
       <c r="F160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G160" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="161">
@@ -3866,10 +4355,13 @@
         <v>153</v>
       </c>
       <c r="F161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G161" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -3889,10 +4381,13 @@
         <v>200</v>
       </c>
       <c r="F162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G162" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -3912,10 +4407,13 @@
         <v>174</v>
       </c>
       <c r="F163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G163" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -3935,10 +4433,13 @@
         <v>144</v>
       </c>
       <c r="F164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G164" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H164" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -3958,10 +4459,13 @@
         <v>207</v>
       </c>
       <c r="F165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G165" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H165" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -3981,10 +4485,13 @@
         <v>210</v>
       </c>
       <c r="F166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G166" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H166" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -4004,10 +4511,13 @@
         <v>216</v>
       </c>
       <c r="F167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G167" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H167" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="168">
@@ -4027,10 +4537,13 @@
         <v>215</v>
       </c>
       <c r="F168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G168" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H168" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -4050,10 +4563,13 @@
         <v>221</v>
       </c>
       <c r="F169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G169" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H169" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="170">
@@ -4073,10 +4589,13 @@
         <v>189</v>
       </c>
       <c r="F170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G170" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -4096,10 +4615,13 @@
         <v>195</v>
       </c>
       <c r="F171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G171" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -4119,10 +4641,13 @@
         <v>147</v>
       </c>
       <c r="F172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G172" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -4142,10 +4667,13 @@
         <v>218</v>
       </c>
       <c r="F173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G173" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="174">
@@ -4165,10 +4693,13 @@
         <v>200</v>
       </c>
       <c r="F174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H174" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="175">
@@ -4188,10 +4719,13 @@
         <v>213</v>
       </c>
       <c r="F175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G175" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H175" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -4211,10 +4745,13 @@
         <v>181</v>
       </c>
       <c r="F176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G176" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="177">
@@ -4234,10 +4771,13 @@
         <v>193</v>
       </c>
       <c r="F177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G177" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H177" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="178">
@@ -4257,10 +4797,13 @@
         <v>190</v>
       </c>
       <c r="F178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G178" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H178" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="179">
@@ -4280,10 +4823,13 @@
         <v>160</v>
       </c>
       <c r="F179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G179" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="180">
@@ -4303,10 +4849,13 @@
         <v>181</v>
       </c>
       <c r="F180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G180" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="181">
@@ -4326,10 +4875,13 @@
         <v>182</v>
       </c>
       <c r="F181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G181" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -4349,10 +4901,13 @@
         <v>210</v>
       </c>
       <c r="F182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G182" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="183">
@@ -4372,10 +4927,13 @@
         <v>219</v>
       </c>
       <c r="F183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G183" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H183" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="184">
@@ -4395,10 +4953,13 @@
         <v>188</v>
       </c>
       <c r="F184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G184" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H184" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="185">
@@ -4418,10 +4979,13 @@
         <v>135</v>
       </c>
       <c r="F185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G185" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H185" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -4441,10 +5005,13 @@
         <v>172</v>
       </c>
       <c r="F186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G186" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H186" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="187">
@@ -4464,10 +5031,13 @@
         <v>157</v>
       </c>
       <c r="F187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G187" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H187" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="188">
@@ -4487,10 +5057,13 @@
         <v>183</v>
       </c>
       <c r="F188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G188" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H188" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="189">
@@ -4510,10 +5083,13 @@
         <v>181</v>
       </c>
       <c r="F189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G189" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H189" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="190">
@@ -4533,10 +5109,13 @@
         <v>184</v>
       </c>
       <c r="F190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G190" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H190" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="191">
@@ -4556,10 +5135,13 @@
         <v>128</v>
       </c>
       <c r="F191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G191" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H191" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="192">
@@ -4573,10 +5155,13 @@
       <c r="D192"/>
       <c r="E192"/>
       <c r="F192" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G192" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H192" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="193">
@@ -4596,10 +5181,13 @@
         <v>162</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H193" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -4619,10 +5207,13 @@
         <v>195</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H194" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="195">
@@ -4642,10 +5233,13 @@
         <v>195</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H195" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="196">
@@ -4665,10 +5259,13 @@
         <v>189</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H196" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -4688,10 +5285,13 @@
         <v>176</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H197" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="198">
@@ -4705,10 +5305,13 @@
       <c r="D198"/>
       <c r="E198"/>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -4728,10 +5331,13 @@
         <v>221</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="200">
@@ -4745,10 +5351,13 @@
       <c r="D200"/>
       <c r="E200"/>
       <c r="F200" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G200" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H200" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="201">
@@ -4768,10 +5377,13 @@
         <v>180</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H201" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="202">
@@ -4785,10 +5397,13 @@
       <c r="D202"/>
       <c r="E202"/>
       <c r="F202" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G202" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -4808,10 +5423,13 @@
         <v>201</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H203" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="204">
@@ -4831,10 +5449,13 @@
         <v>178</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H204" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="205">
@@ -4854,10 +5475,13 @@
         <v>203</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H205" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="206">
@@ -4871,10 +5495,13 @@
       <c r="D206"/>
       <c r="E206"/>
       <c r="F206" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G206" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H206" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="207">
@@ -4894,10 +5521,13 @@
         <v>232</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H207" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="208">
@@ -4911,10 +5541,13 @@
       <c r="D208"/>
       <c r="E208"/>
       <c r="F208" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G208" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="209">
@@ -4934,10 +5567,13 @@
         <v>225</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H209" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="210">
@@ -4957,10 +5593,13 @@
         <v>228</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H210" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="211">
@@ -4980,10 +5619,13 @@
         <v>230</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H211" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="212">
@@ -4997,10 +5639,13 @@
       <c r="D212"/>
       <c r="E212"/>
       <c r="F212" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G212" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H212" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="213">
@@ -5020,10 +5665,13 @@
         <v>241</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H213" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="214">
@@ -5043,10 +5691,13 @@
         <v>232</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H214" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="215">
@@ -5066,10 +5717,13 @@
         <v>210</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H215" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -5083,10 +5737,13 @@
       <c r="D216"/>
       <c r="E216"/>
       <c r="F216" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G216" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H216" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="217">
@@ -5106,10 +5763,13 @@
         <v>223</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -5123,10 +5783,13 @@
       <c r="D218"/>
       <c r="E218"/>
       <c r="F218" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G218" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H218" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="219">
@@ -5146,10 +5809,13 @@
         <v>189</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H219" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="220">
@@ -5169,10 +5835,13 @@
         <v>179</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G220" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H220" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="221">
@@ -5186,10 +5855,13 @@
       <c r="D221"/>
       <c r="E221"/>
       <c r="F221" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G221" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H221" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="222">
@@ -5209,10 +5881,13 @@
         <v>230</v>
       </c>
       <c r="F222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H222" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="223">
@@ -5226,10 +5901,13 @@
       <c r="D223"/>
       <c r="E223"/>
       <c r="F223" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G223" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H223" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="224">
@@ -5249,10 +5927,13 @@
         <v>217</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H224" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="225">
@@ -5272,10 +5953,13 @@
         <v>196</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H225" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="226">
@@ -5295,10 +5979,13 @@
         <v>214</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G226" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="227">
@@ -5312,10 +5999,13 @@
       <c r="D227"/>
       <c r="E227"/>
       <c r="F227" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G227" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H227" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="228">
@@ -5335,10 +6025,13 @@
         <v>201</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="229">
@@ -5358,10 +6051,13 @@
         <v>200</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G229" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="230">
@@ -5381,10 +6077,13 @@
         <v>198</v>
       </c>
       <c r="F230" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G230" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="231">
@@ -5404,10 +6103,13 @@
         <v>192</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G231" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H231" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -5421,10 +6123,13 @@
       <c r="D232"/>
       <c r="E232"/>
       <c r="F232" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G232" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="233">
@@ -5438,10 +6143,13 @@
       <c r="D233"/>
       <c r="E233"/>
       <c r="F233" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G233" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="234">
@@ -5461,10 +6169,13 @@
         <v>204</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G234" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="235">
@@ -5484,10 +6195,13 @@
         <v>216</v>
       </c>
       <c r="F235" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G235" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="236">
@@ -5507,10 +6221,13 @@
         <v>213</v>
       </c>
       <c r="F236" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G236" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H236" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="237">
@@ -5530,10 +6247,13 @@
         <v>194</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G237" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H237" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="238">
@@ -5553,10 +6273,13 @@
         <v>203</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G238" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H238" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -5576,10 +6299,13 @@
         <v>166</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G239" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H239" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="240">
@@ -5593,10 +6319,13 @@
       <c r="D240"/>
       <c r="E240"/>
       <c r="F240" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G240" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H240" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -5616,10 +6345,13 @@
         <v>189</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G241" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H241" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="242">
@@ -5639,10 +6371,13 @@
         <v>183</v>
       </c>
       <c r="F242" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G242" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H242" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -5662,10 +6397,13 @@
         <v>181</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G243" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H243" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="244">
@@ -5679,10 +6417,13 @@
       <c r="D244"/>
       <c r="E244"/>
       <c r="F244" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G244" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H244" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="245">
@@ -5702,10 +6443,13 @@
         <v>170</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G245" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H245" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="246">
@@ -5725,10 +6469,13 @@
         <v>185</v>
       </c>
       <c r="F246" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G246" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H246" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="247">
@@ -5742,10 +6489,13 @@
       <c r="D247"/>
       <c r="E247"/>
       <c r="F247" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G247" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H247" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="248">
@@ -5765,10 +6515,13 @@
         <v>201</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G248" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H248" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -5782,10 +6535,13 @@
       <c r="D249"/>
       <c r="E249"/>
       <c r="F249" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G249" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H249" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="250">
@@ -5805,10 +6561,13 @@
         <v>190</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G250" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="251">
@@ -5822,10 +6581,13 @@
       <c r="D251"/>
       <c r="E251"/>
       <c r="F251" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G251" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H251" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="252">
@@ -5845,10 +6607,13 @@
         <v>170</v>
       </c>
       <c r="F252" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G252" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H252" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="253">
@@ -5868,10 +6633,13 @@
         <v>216</v>
       </c>
       <c r="F253" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G253" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H253" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="254">
@@ -5891,10 +6659,13 @@
         <v>181</v>
       </c>
       <c r="F254" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G254" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H254" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="255">
@@ -5914,10 +6685,13 @@
         <v>159</v>
       </c>
       <c r="F255" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G255" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H255" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="256">
@@ -5931,10 +6705,13 @@
       <c r="D256"/>
       <c r="E256"/>
       <c r="F256" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G256" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H256" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="257">
@@ -5954,10 +6731,13 @@
         <v>196</v>
       </c>
       <c r="F257" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G257" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H257" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="258">
@@ -5977,10 +6757,13 @@
         <v>183</v>
       </c>
       <c r="F258" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G258" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H258" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="259">
@@ -6000,10 +6783,13 @@
         <v>195</v>
       </c>
       <c r="F259" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G259" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H259" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="260">
@@ -6017,10 +6803,13 @@
       <c r="D260"/>
       <c r="E260"/>
       <c r="F260" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G260" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H260" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="261">
@@ -6040,10 +6829,13 @@
         <v>195</v>
       </c>
       <c r="F261" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G261" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H261" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="262">
@@ -6057,10 +6849,13 @@
       <c r="D262"/>
       <c r="E262"/>
       <c r="F262" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G262" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H262" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="263">
@@ -6080,10 +6875,13 @@
         <v>211</v>
       </c>
       <c r="F263" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G263" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H263" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="264">
@@ -6103,10 +6901,13 @@
         <v>209</v>
       </c>
       <c r="F264" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G264" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H264" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="265">
@@ -6120,10 +6921,13 @@
       <c r="D265"/>
       <c r="E265"/>
       <c r="F265" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G265" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H265" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="266">
@@ -6143,10 +6947,13 @@
         <v>171</v>
       </c>
       <c r="F266" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G266" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H266" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="267">
@@ -6166,10 +6973,13 @@
         <v>209</v>
       </c>
       <c r="F267" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G267" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H267" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -6189,10 +6999,13 @@
         <v>189</v>
       </c>
       <c r="F268" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G268" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H268" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="269">
@@ -6206,10 +7019,13 @@
       <c r="D269"/>
       <c r="E269"/>
       <c r="F269" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H269" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="270">
@@ -6229,10 +7045,13 @@
         <v>165</v>
       </c>
       <c r="F270" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G270" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H270" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="271">
@@ -6252,10 +7071,13 @@
         <v>174</v>
       </c>
       <c r="F271" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G271" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H271" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="272">
@@ -6275,10 +7097,13 @@
         <v>166</v>
       </c>
       <c r="F272" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G272" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H272" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="273">
@@ -6298,10 +7123,13 @@
         <v>161</v>
       </c>
       <c r="F273" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G273" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H273" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="274">
@@ -6315,10 +7143,13 @@
       <c r="D274"/>
       <c r="E274"/>
       <c r="F274" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G274" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H274" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="275">
@@ -6338,10 +7169,13 @@
         <v>157</v>
       </c>
       <c r="F275" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G275" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H275" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="276">
@@ -6361,10 +7195,13 @@
         <v>189</v>
       </c>
       <c r="F276" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G276" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H276" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="277">
@@ -6378,10 +7215,13 @@
       <c r="D277"/>
       <c r="E277"/>
       <c r="F277" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G277" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H277" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="278">
@@ -6395,10 +7235,13 @@
       <c r="D278"/>
       <c r="E278"/>
       <c r="F278" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G278" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H278" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="279">
@@ -6418,10 +7261,13 @@
         <v>181</v>
       </c>
       <c r="F279" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G279" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H279" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="280">
@@ -6441,10 +7287,13 @@
         <v>202</v>
       </c>
       <c r="F280" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G280" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H280" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="281">
@@ -6458,10 +7307,13 @@
       <c r="D281"/>
       <c r="E281"/>
       <c r="F281" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G281" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="282">
@@ -6481,10 +7333,13 @@
         <v>176</v>
       </c>
       <c r="F282" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G282" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H282" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -6504,10 +7359,13 @@
         <v>168</v>
       </c>
       <c r="F283" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G283" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H283" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="284">
@@ -6527,10 +7385,13 @@
         <v>177</v>
       </c>
       <c r="F284" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G284" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H284" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="285">
@@ -6544,10 +7405,13 @@
       <c r="D285"/>
       <c r="E285"/>
       <c r="F285" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G285" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H285" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="286">
@@ -6567,10 +7431,13 @@
         <v>180</v>
       </c>
       <c r="F286" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G286" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H286" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="287">
@@ -6584,10 +7451,13 @@
       <c r="D287"/>
       <c r="E287"/>
       <c r="F287" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G287" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H287" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="288">
@@ -6607,10 +7477,13 @@
         <v>172</v>
       </c>
       <c r="F288" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G288" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H288" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="289">
@@ -6630,10 +7503,13 @@
         <v>176</v>
       </c>
       <c r="F289" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G289" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H289" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="290">
@@ -6653,10 +7529,13 @@
         <v>196</v>
       </c>
       <c r="F290" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G290" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H290" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="291">
@@ -6676,10 +7555,13 @@
         <v>185</v>
       </c>
       <c r="F291" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G291" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H291" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="292">
@@ -6693,10 +7575,13 @@
       <c r="D292"/>
       <c r="E292"/>
       <c r="F292" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G292" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H292" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="293">
@@ -6716,10 +7601,13 @@
         <v>188</v>
       </c>
       <c r="F293" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G293" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H293" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="294">
@@ -6733,10 +7621,13 @@
       <c r="D294"/>
       <c r="E294"/>
       <c r="F294" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G294" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H294" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="295">
@@ -6756,10 +7647,13 @@
         <v>155</v>
       </c>
       <c r="F295" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G295" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H295" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="296">
@@ -6779,10 +7673,13 @@
         <v>190</v>
       </c>
       <c r="F296" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G296" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H296" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="297">
@@ -6802,10 +7699,13 @@
         <v>179</v>
       </c>
       <c r="F297" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G297" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H297" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="298">
@@ -6825,10 +7725,13 @@
         <v>179</v>
       </c>
       <c r="F298" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G298" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H298" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="299">
@@ -6842,10 +7745,13 @@
       <c r="D299"/>
       <c r="E299"/>
       <c r="F299" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G299" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H299" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="300">
@@ -6865,10 +7771,13 @@
         <v>232</v>
       </c>
       <c r="F300" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G300" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H300" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="301">
@@ -6888,10 +7797,13 @@
         <v>196</v>
       </c>
       <c r="F301" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G301" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H301" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GoNoGo/archivos_prueba/tidyfile.xlsx
+++ b/GoNoGo/archivos_prueba/tidyfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">trial</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">1161_15y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1328_15y</t>
   </si>
 </sst>
 </file>
@@ -7806,6 +7809,3682 @@
         <v>14</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+      <c r="C302" t="n">
+        <v>651</v>
+      </c>
+      <c r="D302" t="n">
+        <v>950</v>
+      </c>
+      <c r="E302" t="n">
+        <v>299</v>
+      </c>
+      <c r="F302" t="s">
+        <v>8</v>
+      </c>
+      <c r="G302" t="s">
+        <v>9</v>
+      </c>
+      <c r="H302" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>586</v>
+      </c>
+      <c r="D303" t="n">
+        <v>884</v>
+      </c>
+      <c r="E303" t="n">
+        <v>298</v>
+      </c>
+      <c r="F303" t="s">
+        <v>8</v>
+      </c>
+      <c r="G303" t="s">
+        <v>9</v>
+      </c>
+      <c r="H303" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" t="n">
+        <v>456</v>
+      </c>
+      <c r="D304" t="n">
+        <v>715</v>
+      </c>
+      <c r="E304" t="n">
+        <v>259</v>
+      </c>
+      <c r="F304" t="s">
+        <v>8</v>
+      </c>
+      <c r="G304" t="s">
+        <v>9</v>
+      </c>
+      <c r="H304" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>4</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+      <c r="C305" t="n">
+        <v>663</v>
+      </c>
+      <c r="D305" t="n">
+        <v>919</v>
+      </c>
+      <c r="E305" t="n">
+        <v>256</v>
+      </c>
+      <c r="F305" t="s">
+        <v>8</v>
+      </c>
+      <c r="G305" t="s">
+        <v>9</v>
+      </c>
+      <c r="H305" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>5</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+      <c r="C306"/>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306" t="s">
+        <v>8</v>
+      </c>
+      <c r="G306" t="s">
+        <v>11</v>
+      </c>
+      <c r="H306" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>6</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+      <c r="C307" t="n">
+        <v>581</v>
+      </c>
+      <c r="D307" t="n">
+        <v>847</v>
+      </c>
+      <c r="E307" t="n">
+        <v>266</v>
+      </c>
+      <c r="F307" t="s">
+        <v>8</v>
+      </c>
+      <c r="G307" t="s">
+        <v>9</v>
+      </c>
+      <c r="H307" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>7</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+      <c r="C308" t="n">
+        <v>434</v>
+      </c>
+      <c r="D308" t="n">
+        <v>722</v>
+      </c>
+      <c r="E308" t="n">
+        <v>288</v>
+      </c>
+      <c r="F308" t="s">
+        <v>8</v>
+      </c>
+      <c r="G308" t="s">
+        <v>9</v>
+      </c>
+      <c r="H308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>8</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+      <c r="C309" t="n">
+        <v>389</v>
+      </c>
+      <c r="D309" t="n">
+        <v>613</v>
+      </c>
+      <c r="E309" t="n">
+        <v>224</v>
+      </c>
+      <c r="F309" t="s">
+        <v>8</v>
+      </c>
+      <c r="G309" t="s">
+        <v>9</v>
+      </c>
+      <c r="H309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>9</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+      <c r="C310" t="n">
+        <v>813</v>
+      </c>
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310" t="s">
+        <v>8</v>
+      </c>
+      <c r="G310" t="s">
+        <v>9</v>
+      </c>
+      <c r="H310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>10</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+      <c r="C311" t="n">
+        <v>453</v>
+      </c>
+      <c r="D311" t="n">
+        <v>694</v>
+      </c>
+      <c r="E311" t="n">
+        <v>241</v>
+      </c>
+      <c r="F311" t="s">
+        <v>8</v>
+      </c>
+      <c r="G311" t="s">
+        <v>9</v>
+      </c>
+      <c r="H311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>11</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>352</v>
+      </c>
+      <c r="D312" t="n">
+        <v>588</v>
+      </c>
+      <c r="E312" t="n">
+        <v>236</v>
+      </c>
+      <c r="F312" t="s">
+        <v>8</v>
+      </c>
+      <c r="G312" t="s">
+        <v>9</v>
+      </c>
+      <c r="H312" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>12</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>445</v>
+      </c>
+      <c r="D313" t="n">
+        <v>659</v>
+      </c>
+      <c r="E313" t="n">
+        <v>214</v>
+      </c>
+      <c r="F313" t="s">
+        <v>8</v>
+      </c>
+      <c r="G313" t="s">
+        <v>9</v>
+      </c>
+      <c r="H313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>13</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+      <c r="C314" t="n">
+        <v>511</v>
+      </c>
+      <c r="D314" t="n">
+        <v>821</v>
+      </c>
+      <c r="E314" t="n">
+        <v>310</v>
+      </c>
+      <c r="F314" t="s">
+        <v>8</v>
+      </c>
+      <c r="G314" t="s">
+        <v>9</v>
+      </c>
+      <c r="H314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>14</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+      <c r="C315" t="n">
+        <v>432</v>
+      </c>
+      <c r="D315" t="n">
+        <v>717</v>
+      </c>
+      <c r="E315" t="n">
+        <v>285</v>
+      </c>
+      <c r="F315" t="s">
+        <v>8</v>
+      </c>
+      <c r="G315" t="s">
+        <v>9</v>
+      </c>
+      <c r="H315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>15</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>360</v>
+      </c>
+      <c r="D316" t="n">
+        <v>612</v>
+      </c>
+      <c r="E316" t="n">
+        <v>252</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+      <c r="G316" t="s">
+        <v>9</v>
+      </c>
+      <c r="H316" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>16</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>426</v>
+      </c>
+      <c r="D317" t="n">
+        <v>678</v>
+      </c>
+      <c r="E317" t="n">
+        <v>252</v>
+      </c>
+      <c r="F317" t="s">
+        <v>8</v>
+      </c>
+      <c r="G317" t="s">
+        <v>9</v>
+      </c>
+      <c r="H317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>17</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+      <c r="C318" t="n">
+        <v>397</v>
+      </c>
+      <c r="D318" t="n">
+        <v>669</v>
+      </c>
+      <c r="E318" t="n">
+        <v>272</v>
+      </c>
+      <c r="F318" t="s">
+        <v>8</v>
+      </c>
+      <c r="G318" t="s">
+        <v>9</v>
+      </c>
+      <c r="H318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>18</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+      <c r="C319" t="n">
+        <v>532</v>
+      </c>
+      <c r="D319" t="n">
+        <v>747</v>
+      </c>
+      <c r="E319" t="n">
+        <v>215</v>
+      </c>
+      <c r="F319" t="s">
+        <v>8</v>
+      </c>
+      <c r="G319" t="s">
+        <v>9</v>
+      </c>
+      <c r="H319" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>19</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+      <c r="C320" t="n">
+        <v>388</v>
+      </c>
+      <c r="D320" t="n">
+        <v>664</v>
+      </c>
+      <c r="E320" t="n">
+        <v>276</v>
+      </c>
+      <c r="F320" t="s">
+        <v>8</v>
+      </c>
+      <c r="G320" t="s">
+        <v>9</v>
+      </c>
+      <c r="H320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>20</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+      <c r="C321" t="n">
+        <v>362</v>
+      </c>
+      <c r="D321" t="n">
+        <v>616</v>
+      </c>
+      <c r="E321" t="n">
+        <v>254</v>
+      </c>
+      <c r="F321" t="s">
+        <v>8</v>
+      </c>
+      <c r="G321" t="s">
+        <v>9</v>
+      </c>
+      <c r="H321" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>21</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+      <c r="C322" t="n">
+        <v>386</v>
+      </c>
+      <c r="D322" t="n">
+        <v>670</v>
+      </c>
+      <c r="E322" t="n">
+        <v>284</v>
+      </c>
+      <c r="F322" t="s">
+        <v>8</v>
+      </c>
+      <c r="G322" t="s">
+        <v>9</v>
+      </c>
+      <c r="H322" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>22</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+      <c r="C323" t="n">
+        <v>403</v>
+      </c>
+      <c r="D323" t="n">
+        <v>600</v>
+      </c>
+      <c r="E323" t="n">
+        <v>197</v>
+      </c>
+      <c r="F323" t="s">
+        <v>8</v>
+      </c>
+      <c r="G323" t="s">
+        <v>9</v>
+      </c>
+      <c r="H323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>23</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+      <c r="C324" t="n">
+        <v>426</v>
+      </c>
+      <c r="D324" t="n">
+        <v>644</v>
+      </c>
+      <c r="E324" t="n">
+        <v>218</v>
+      </c>
+      <c r="F324" t="s">
+        <v>8</v>
+      </c>
+      <c r="G324" t="s">
+        <v>9</v>
+      </c>
+      <c r="H324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>24</v>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+      <c r="C325" t="n">
+        <v>353</v>
+      </c>
+      <c r="D325" t="n">
+        <v>583</v>
+      </c>
+      <c r="E325" t="n">
+        <v>230</v>
+      </c>
+      <c r="F325" t="s">
+        <v>8</v>
+      </c>
+      <c r="G325" t="s">
+        <v>9</v>
+      </c>
+      <c r="H325" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>25</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+      <c r="C326" t="n">
+        <v>354</v>
+      </c>
+      <c r="D326" t="n">
+        <v>574</v>
+      </c>
+      <c r="E326" t="n">
+        <v>220</v>
+      </c>
+      <c r="F326" t="s">
+        <v>8</v>
+      </c>
+      <c r="G326" t="s">
+        <v>9</v>
+      </c>
+      <c r="H326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>26</v>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+      <c r="C327" t="n">
+        <v>370</v>
+      </c>
+      <c r="D327" t="n">
+        <v>613</v>
+      </c>
+      <c r="E327" t="n">
+        <v>243</v>
+      </c>
+      <c r="F327" t="s">
+        <v>8</v>
+      </c>
+      <c r="G327" t="s">
+        <v>9</v>
+      </c>
+      <c r="H327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>27</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>393</v>
+      </c>
+      <c r="D328" t="n">
+        <v>598</v>
+      </c>
+      <c r="E328" t="n">
+        <v>205</v>
+      </c>
+      <c r="F328" t="s">
+        <v>8</v>
+      </c>
+      <c r="G328" t="s">
+        <v>9</v>
+      </c>
+      <c r="H328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>28</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+      <c r="C329" t="n">
+        <v>357</v>
+      </c>
+      <c r="D329" t="n">
+        <v>561</v>
+      </c>
+      <c r="E329" t="n">
+        <v>204</v>
+      </c>
+      <c r="F329" t="s">
+        <v>8</v>
+      </c>
+      <c r="G329" t="s">
+        <v>9</v>
+      </c>
+      <c r="H329" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>29</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+      <c r="C330" t="n">
+        <v>382</v>
+      </c>
+      <c r="D330" t="n">
+        <v>562</v>
+      </c>
+      <c r="E330" t="n">
+        <v>180</v>
+      </c>
+      <c r="F330" t="s">
+        <v>8</v>
+      </c>
+      <c r="G330" t="s">
+        <v>9</v>
+      </c>
+      <c r="H330" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>30</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+      <c r="C331" t="n">
+        <v>399</v>
+      </c>
+      <c r="D331" t="n">
+        <v>623</v>
+      </c>
+      <c r="E331" t="n">
+        <v>224</v>
+      </c>
+      <c r="F331" t="s">
+        <v>8</v>
+      </c>
+      <c r="G331" t="s">
+        <v>9</v>
+      </c>
+      <c r="H331" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>31</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+      <c r="C332" t="n">
+        <v>383</v>
+      </c>
+      <c r="D332" t="n">
+        <v>646</v>
+      </c>
+      <c r="E332" t="n">
+        <v>263</v>
+      </c>
+      <c r="F332" t="s">
+        <v>8</v>
+      </c>
+      <c r="G332" t="s">
+        <v>9</v>
+      </c>
+      <c r="H332" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>32</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+      <c r="C333" t="n">
+        <v>316</v>
+      </c>
+      <c r="D333" t="n">
+        <v>605</v>
+      </c>
+      <c r="E333" t="n">
+        <v>289</v>
+      </c>
+      <c r="F333" t="s">
+        <v>8</v>
+      </c>
+      <c r="G333" t="s">
+        <v>9</v>
+      </c>
+      <c r="H333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>33</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+      <c r="C334" t="n">
+        <v>309</v>
+      </c>
+      <c r="D334" t="n">
+        <v>500</v>
+      </c>
+      <c r="E334" t="n">
+        <v>191</v>
+      </c>
+      <c r="F334" t="s">
+        <v>8</v>
+      </c>
+      <c r="G334" t="s">
+        <v>9</v>
+      </c>
+      <c r="H334" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>34</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+      <c r="C335" t="n">
+        <v>283</v>
+      </c>
+      <c r="D335" t="n">
+        <v>531</v>
+      </c>
+      <c r="E335" t="n">
+        <v>248</v>
+      </c>
+      <c r="F335" t="s">
+        <v>8</v>
+      </c>
+      <c r="G335" t="s">
+        <v>9</v>
+      </c>
+      <c r="H335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>35</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+      <c r="C336" t="n">
+        <v>345</v>
+      </c>
+      <c r="D336" t="n">
+        <v>572</v>
+      </c>
+      <c r="E336" t="n">
+        <v>227</v>
+      </c>
+      <c r="F336" t="s">
+        <v>8</v>
+      </c>
+      <c r="G336" t="s">
+        <v>9</v>
+      </c>
+      <c r="H336" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>36</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+      <c r="C337" t="n">
+        <v>457</v>
+      </c>
+      <c r="D337" t="n">
+        <v>688</v>
+      </c>
+      <c r="E337" t="n">
+        <v>231</v>
+      </c>
+      <c r="F337" t="s">
+        <v>8</v>
+      </c>
+      <c r="G337" t="s">
+        <v>9</v>
+      </c>
+      <c r="H337" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>37</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" t="n">
+        <v>438</v>
+      </c>
+      <c r="D338" t="n">
+        <v>688</v>
+      </c>
+      <c r="E338" t="n">
+        <v>250</v>
+      </c>
+      <c r="F338" t="s">
+        <v>8</v>
+      </c>
+      <c r="G338" t="s">
+        <v>9</v>
+      </c>
+      <c r="H338" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>38</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+      <c r="C339" t="n">
+        <v>265</v>
+      </c>
+      <c r="D339" t="n">
+        <v>523</v>
+      </c>
+      <c r="E339" t="n">
+        <v>258</v>
+      </c>
+      <c r="F339" t="s">
+        <v>8</v>
+      </c>
+      <c r="G339" t="s">
+        <v>9</v>
+      </c>
+      <c r="H339" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>39</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+      <c r="C340" t="n">
+        <v>336</v>
+      </c>
+      <c r="D340" t="n">
+        <v>645</v>
+      </c>
+      <c r="E340" t="n">
+        <v>309</v>
+      </c>
+      <c r="F340" t="s">
+        <v>8</v>
+      </c>
+      <c r="G340" t="s">
+        <v>9</v>
+      </c>
+      <c r="H340" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>40</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+      <c r="C341" t="n">
+        <v>331</v>
+      </c>
+      <c r="D341" t="n">
+        <v>576</v>
+      </c>
+      <c r="E341" t="n">
+        <v>245</v>
+      </c>
+      <c r="F341" t="s">
+        <v>8</v>
+      </c>
+      <c r="G341" t="s">
+        <v>9</v>
+      </c>
+      <c r="H341" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>41</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3</v>
+      </c>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342"/>
+      <c r="F342" t="s">
+        <v>12</v>
+      </c>
+      <c r="G342" t="s">
+        <v>11</v>
+      </c>
+      <c r="H342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>42</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2</v>
+      </c>
+      <c r="C343" t="n">
+        <v>461</v>
+      </c>
+      <c r="D343" t="n">
+        <v>700</v>
+      </c>
+      <c r="E343" t="n">
+        <v>239</v>
+      </c>
+      <c r="F343" t="s">
+        <v>13</v>
+      </c>
+      <c r="G343" t="s">
+        <v>9</v>
+      </c>
+      <c r="H343" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>43</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2</v>
+      </c>
+      <c r="C344" t="n">
+        <v>347</v>
+      </c>
+      <c r="D344" t="n">
+        <v>560</v>
+      </c>
+      <c r="E344" t="n">
+        <v>213</v>
+      </c>
+      <c r="F344" t="s">
+        <v>13</v>
+      </c>
+      <c r="G344" t="s">
+        <v>9</v>
+      </c>
+      <c r="H344" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>44</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2</v>
+      </c>
+      <c r="C345" t="n">
+        <v>430</v>
+      </c>
+      <c r="D345" t="n">
+        <v>671</v>
+      </c>
+      <c r="E345" t="n">
+        <v>241</v>
+      </c>
+      <c r="F345" t="s">
+        <v>13</v>
+      </c>
+      <c r="G345" t="s">
+        <v>9</v>
+      </c>
+      <c r="H345" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>45</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2</v>
+      </c>
+      <c r="C346" t="n">
+        <v>403</v>
+      </c>
+      <c r="D346" t="n">
+        <v>682</v>
+      </c>
+      <c r="E346" t="n">
+        <v>279</v>
+      </c>
+      <c r="F346" t="s">
+        <v>13</v>
+      </c>
+      <c r="G346" t="s">
+        <v>9</v>
+      </c>
+      <c r="H346" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>46</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2</v>
+      </c>
+      <c r="C347" t="n">
+        <v>250</v>
+      </c>
+      <c r="D347" t="n">
+        <v>507</v>
+      </c>
+      <c r="E347" t="n">
+        <v>257</v>
+      </c>
+      <c r="F347" t="s">
+        <v>13</v>
+      </c>
+      <c r="G347" t="s">
+        <v>9</v>
+      </c>
+      <c r="H347" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>47</v>
+      </c>
+      <c r="B348" t="n">
+        <v>3</v>
+      </c>
+      <c r="C348"/>
+      <c r="D348"/>
+      <c r="E348"/>
+      <c r="F348" t="s">
+        <v>12</v>
+      </c>
+      <c r="G348" t="s">
+        <v>11</v>
+      </c>
+      <c r="H348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>48</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2</v>
+      </c>
+      <c r="C349" t="n">
+        <v>285</v>
+      </c>
+      <c r="D349" t="n">
+        <v>528</v>
+      </c>
+      <c r="E349" t="n">
+        <v>243</v>
+      </c>
+      <c r="F349" t="s">
+        <v>13</v>
+      </c>
+      <c r="G349" t="s">
+        <v>9</v>
+      </c>
+      <c r="H349" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>49</v>
+      </c>
+      <c r="B350" t="n">
+        <v>3</v>
+      </c>
+      <c r="C350"/>
+      <c r="D350"/>
+      <c r="E350"/>
+      <c r="F350" t="s">
+        <v>12</v>
+      </c>
+      <c r="G350" t="s">
+        <v>9</v>
+      </c>
+      <c r="H350" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>50</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2</v>
+      </c>
+      <c r="C351" t="n">
+        <v>256</v>
+      </c>
+      <c r="D351" t="n">
+        <v>463</v>
+      </c>
+      <c r="E351" t="n">
+        <v>207</v>
+      </c>
+      <c r="F351" t="s">
+        <v>13</v>
+      </c>
+      <c r="G351" t="s">
+        <v>9</v>
+      </c>
+      <c r="H351" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>51</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3</v>
+      </c>
+      <c r="C352"/>
+      <c r="D352"/>
+      <c r="E352"/>
+      <c r="F352" t="s">
+        <v>12</v>
+      </c>
+      <c r="G352" t="s">
+        <v>9</v>
+      </c>
+      <c r="H352" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>52</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2</v>
+      </c>
+      <c r="C353" t="n">
+        <v>389</v>
+      </c>
+      <c r="D353" t="n">
+        <v>600</v>
+      </c>
+      <c r="E353" t="n">
+        <v>211</v>
+      </c>
+      <c r="F353" t="s">
+        <v>13</v>
+      </c>
+      <c r="G353" t="s">
+        <v>9</v>
+      </c>
+      <c r="H353" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>53</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2</v>
+      </c>
+      <c r="C354" t="n">
+        <v>695</v>
+      </c>
+      <c r="D354" t="n">
+        <v>899</v>
+      </c>
+      <c r="E354" t="n">
+        <v>204</v>
+      </c>
+      <c r="F354" t="s">
+        <v>13</v>
+      </c>
+      <c r="G354" t="s">
+        <v>9</v>
+      </c>
+      <c r="H354" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>54</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2</v>
+      </c>
+      <c r="C355" t="n">
+        <v>354</v>
+      </c>
+      <c r="D355" t="n">
+        <v>614</v>
+      </c>
+      <c r="E355" t="n">
+        <v>260</v>
+      </c>
+      <c r="F355" t="s">
+        <v>13</v>
+      </c>
+      <c r="G355" t="s">
+        <v>9</v>
+      </c>
+      <c r="H355" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>55</v>
+      </c>
+      <c r="B356" t="n">
+        <v>3</v>
+      </c>
+      <c r="C356"/>
+      <c r="D356"/>
+      <c r="E356"/>
+      <c r="F356" t="s">
+        <v>12</v>
+      </c>
+      <c r="G356" t="s">
+        <v>9</v>
+      </c>
+      <c r="H356" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>56</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2</v>
+      </c>
+      <c r="C357" t="n">
+        <v>310</v>
+      </c>
+      <c r="D357" t="n">
+        <v>563</v>
+      </c>
+      <c r="E357" t="n">
+        <v>253</v>
+      </c>
+      <c r="F357" t="s">
+        <v>13</v>
+      </c>
+      <c r="G357" t="s">
+        <v>9</v>
+      </c>
+      <c r="H357" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>57</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3</v>
+      </c>
+      <c r="C358"/>
+      <c r="D358"/>
+      <c r="E358"/>
+      <c r="F358" t="s">
+        <v>12</v>
+      </c>
+      <c r="G358" t="s">
+        <v>9</v>
+      </c>
+      <c r="H358" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>58</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2</v>
+      </c>
+      <c r="C359" t="n">
+        <v>374</v>
+      </c>
+      <c r="D359" t="n">
+        <v>603</v>
+      </c>
+      <c r="E359" t="n">
+        <v>229</v>
+      </c>
+      <c r="F359" t="s">
+        <v>13</v>
+      </c>
+      <c r="G359" t="s">
+        <v>9</v>
+      </c>
+      <c r="H359" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>59</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2</v>
+      </c>
+      <c r="C360" t="n">
+        <v>611</v>
+      </c>
+      <c r="D360" t="n">
+        <v>861</v>
+      </c>
+      <c r="E360" t="n">
+        <v>250</v>
+      </c>
+      <c r="F360" t="s">
+        <v>13</v>
+      </c>
+      <c r="G360" t="s">
+        <v>9</v>
+      </c>
+      <c r="H360" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>60</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2</v>
+      </c>
+      <c r="C361" t="n">
+        <v>376</v>
+      </c>
+      <c r="D361" t="n">
+        <v>618</v>
+      </c>
+      <c r="E361" t="n">
+        <v>242</v>
+      </c>
+      <c r="F361" t="s">
+        <v>13</v>
+      </c>
+      <c r="G361" t="s">
+        <v>9</v>
+      </c>
+      <c r="H361" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>61</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3</v>
+      </c>
+      <c r="C362"/>
+      <c r="D362"/>
+      <c r="E362"/>
+      <c r="F362" t="s">
+        <v>12</v>
+      </c>
+      <c r="G362" t="s">
+        <v>9</v>
+      </c>
+      <c r="H362" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>62</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2</v>
+      </c>
+      <c r="C363" t="n">
+        <v>276</v>
+      </c>
+      <c r="D363" t="n">
+        <v>506</v>
+      </c>
+      <c r="E363" t="n">
+        <v>230</v>
+      </c>
+      <c r="F363" t="s">
+        <v>13</v>
+      </c>
+      <c r="G363" t="s">
+        <v>9</v>
+      </c>
+      <c r="H363" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>63</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2</v>
+      </c>
+      <c r="C364" t="n">
+        <v>554</v>
+      </c>
+      <c r="D364" t="n">
+        <v>802</v>
+      </c>
+      <c r="E364" t="n">
+        <v>248</v>
+      </c>
+      <c r="F364" t="s">
+        <v>13</v>
+      </c>
+      <c r="G364" t="s">
+        <v>9</v>
+      </c>
+      <c r="H364" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>64</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2</v>
+      </c>
+      <c r="C365" t="n">
+        <v>418</v>
+      </c>
+      <c r="D365" t="n">
+        <v>694</v>
+      </c>
+      <c r="E365" t="n">
+        <v>276</v>
+      </c>
+      <c r="F365" t="s">
+        <v>13</v>
+      </c>
+      <c r="G365" t="s">
+        <v>9</v>
+      </c>
+      <c r="H365" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>65</v>
+      </c>
+      <c r="B366" t="n">
+        <v>3</v>
+      </c>
+      <c r="C366"/>
+      <c r="D366"/>
+      <c r="E366"/>
+      <c r="F366" t="s">
+        <v>12</v>
+      </c>
+      <c r="G366" t="s">
+        <v>9</v>
+      </c>
+      <c r="H366" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>66</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2</v>
+      </c>
+      <c r="C367" t="n">
+        <v>287</v>
+      </c>
+      <c r="D367" t="n">
+        <v>504</v>
+      </c>
+      <c r="E367" t="n">
+        <v>217</v>
+      </c>
+      <c r="F367" t="s">
+        <v>13</v>
+      </c>
+      <c r="G367" t="s">
+        <v>9</v>
+      </c>
+      <c r="H367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>67</v>
+      </c>
+      <c r="B368" t="n">
+        <v>3</v>
+      </c>
+      <c r="C368"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368" t="s">
+        <v>12</v>
+      </c>
+      <c r="G368" t="s">
+        <v>9</v>
+      </c>
+      <c r="H368" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>68</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2</v>
+      </c>
+      <c r="C369" t="n">
+        <v>367</v>
+      </c>
+      <c r="D369" t="n">
+        <v>580</v>
+      </c>
+      <c r="E369" t="n">
+        <v>213</v>
+      </c>
+      <c r="F369" t="s">
+        <v>13</v>
+      </c>
+      <c r="G369" t="s">
+        <v>9</v>
+      </c>
+      <c r="H369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>69</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2</v>
+      </c>
+      <c r="C370" t="n">
+        <v>551</v>
+      </c>
+      <c r="D370" t="n">
+        <v>827</v>
+      </c>
+      <c r="E370" t="n">
+        <v>276</v>
+      </c>
+      <c r="F370" t="s">
+        <v>13</v>
+      </c>
+      <c r="G370" t="s">
+        <v>9</v>
+      </c>
+      <c r="H370" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>70</v>
+      </c>
+      <c r="B371" t="n">
+        <v>3</v>
+      </c>
+      <c r="C371"/>
+      <c r="D371"/>
+      <c r="E371"/>
+      <c r="F371" t="s">
+        <v>12</v>
+      </c>
+      <c r="G371" t="s">
+        <v>9</v>
+      </c>
+      <c r="H371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>71</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2</v>
+      </c>
+      <c r="C372" t="n">
+        <v>419</v>
+      </c>
+      <c r="D372" t="n">
+        <v>679</v>
+      </c>
+      <c r="E372" t="n">
+        <v>260</v>
+      </c>
+      <c r="F372" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372" t="s">
+        <v>9</v>
+      </c>
+      <c r="H372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>72</v>
+      </c>
+      <c r="B373" t="n">
+        <v>3</v>
+      </c>
+      <c r="C373"/>
+      <c r="D373"/>
+      <c r="E373"/>
+      <c r="F373" t="s">
+        <v>12</v>
+      </c>
+      <c r="G373" t="s">
+        <v>9</v>
+      </c>
+      <c r="H373" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>73</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2</v>
+      </c>
+      <c r="C374" t="n">
+        <v>378</v>
+      </c>
+      <c r="D374" t="n">
+        <v>597</v>
+      </c>
+      <c r="E374" t="n">
+        <v>219</v>
+      </c>
+      <c r="F374" t="s">
+        <v>13</v>
+      </c>
+      <c r="G374" t="s">
+        <v>9</v>
+      </c>
+      <c r="H374" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>74</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2</v>
+      </c>
+      <c r="C375" t="n">
+        <v>447</v>
+      </c>
+      <c r="D375" t="n">
+        <v>545</v>
+      </c>
+      <c r="E375" t="n">
+        <v>98</v>
+      </c>
+      <c r="F375" t="s">
+        <v>13</v>
+      </c>
+      <c r="G375" t="s">
+        <v>9</v>
+      </c>
+      <c r="H375" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>75</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2</v>
+      </c>
+      <c r="C376" t="n">
+        <v>495</v>
+      </c>
+      <c r="D376" t="n">
+        <v>751</v>
+      </c>
+      <c r="E376" t="n">
+        <v>256</v>
+      </c>
+      <c r="F376" t="s">
+        <v>13</v>
+      </c>
+      <c r="G376" t="s">
+        <v>9</v>
+      </c>
+      <c r="H376" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>76</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3</v>
+      </c>
+      <c r="C377"/>
+      <c r="D377"/>
+      <c r="E377"/>
+      <c r="F377" t="s">
+        <v>12</v>
+      </c>
+      <c r="G377" t="s">
+        <v>9</v>
+      </c>
+      <c r="H377" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>77</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2</v>
+      </c>
+      <c r="C378" t="n">
+        <v>476</v>
+      </c>
+      <c r="D378" t="n">
+        <v>705</v>
+      </c>
+      <c r="E378" t="n">
+        <v>229</v>
+      </c>
+      <c r="F378" t="s">
+        <v>13</v>
+      </c>
+      <c r="G378" t="s">
+        <v>9</v>
+      </c>
+      <c r="H378" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>78</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2</v>
+      </c>
+      <c r="C379" t="n">
+        <v>903</v>
+      </c>
+      <c r="D379"/>
+      <c r="E379"/>
+      <c r="F379" t="s">
+        <v>13</v>
+      </c>
+      <c r="G379" t="s">
+        <v>9</v>
+      </c>
+      <c r="H379" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>79</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2</v>
+      </c>
+      <c r="C380" t="n">
+        <v>440</v>
+      </c>
+      <c r="D380" t="n">
+        <v>705</v>
+      </c>
+      <c r="E380" t="n">
+        <v>265</v>
+      </c>
+      <c r="F380" t="s">
+        <v>13</v>
+      </c>
+      <c r="G380" t="s">
+        <v>9</v>
+      </c>
+      <c r="H380" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>80</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2</v>
+      </c>
+      <c r="C381" t="n">
+        <v>397</v>
+      </c>
+      <c r="D381" t="n">
+        <v>630</v>
+      </c>
+      <c r="E381" t="n">
+        <v>233</v>
+      </c>
+      <c r="F381" t="s">
+        <v>13</v>
+      </c>
+      <c r="G381" t="s">
+        <v>9</v>
+      </c>
+      <c r="H381" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>81</v>
+      </c>
+      <c r="B382" t="n">
+        <v>3</v>
+      </c>
+      <c r="C382"/>
+      <c r="D382"/>
+      <c r="E382"/>
+      <c r="F382" t="s">
+        <v>12</v>
+      </c>
+      <c r="G382" t="s">
+        <v>9</v>
+      </c>
+      <c r="H382" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>82</v>
+      </c>
+      <c r="B383" t="n">
+        <v>3</v>
+      </c>
+      <c r="C383"/>
+      <c r="D383"/>
+      <c r="E383"/>
+      <c r="F383" t="s">
+        <v>12</v>
+      </c>
+      <c r="G383" t="s">
+        <v>11</v>
+      </c>
+      <c r="H383" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>83</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2</v>
+      </c>
+      <c r="C384" t="n">
+        <v>383</v>
+      </c>
+      <c r="D384" t="n">
+        <v>578</v>
+      </c>
+      <c r="E384" t="n">
+        <v>195</v>
+      </c>
+      <c r="F384" t="s">
+        <v>13</v>
+      </c>
+      <c r="G384" t="s">
+        <v>9</v>
+      </c>
+      <c r="H384" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>84</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2</v>
+      </c>
+      <c r="C385" t="n">
+        <v>322</v>
+      </c>
+      <c r="D385" t="n">
+        <v>520</v>
+      </c>
+      <c r="E385" t="n">
+        <v>198</v>
+      </c>
+      <c r="F385" t="s">
+        <v>13</v>
+      </c>
+      <c r="G385" t="s">
+        <v>9</v>
+      </c>
+      <c r="H385" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>85</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2</v>
+      </c>
+      <c r="C386" t="n">
+        <v>481</v>
+      </c>
+      <c r="D386" t="n">
+        <v>725</v>
+      </c>
+      <c r="E386" t="n">
+        <v>244</v>
+      </c>
+      <c r="F386" t="s">
+        <v>13</v>
+      </c>
+      <c r="G386" t="s">
+        <v>9</v>
+      </c>
+      <c r="H386" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>86</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2</v>
+      </c>
+      <c r="C387" t="n">
+        <v>825</v>
+      </c>
+      <c r="D387"/>
+      <c r="E387"/>
+      <c r="F387" t="s">
+        <v>13</v>
+      </c>
+      <c r="G387" t="s">
+        <v>9</v>
+      </c>
+      <c r="H387" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>87</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2</v>
+      </c>
+      <c r="C388" t="n">
+        <v>986</v>
+      </c>
+      <c r="D388"/>
+      <c r="E388"/>
+      <c r="F388" t="s">
+        <v>13</v>
+      </c>
+      <c r="G388" t="s">
+        <v>9</v>
+      </c>
+      <c r="H388" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>88</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2</v>
+      </c>
+      <c r="C389" t="n">
+        <v>510</v>
+      </c>
+      <c r="D389" t="n">
+        <v>771</v>
+      </c>
+      <c r="E389" t="n">
+        <v>261</v>
+      </c>
+      <c r="F389" t="s">
+        <v>13</v>
+      </c>
+      <c r="G389" t="s">
+        <v>9</v>
+      </c>
+      <c r="H389" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>89</v>
+      </c>
+      <c r="B390" t="n">
+        <v>3</v>
+      </c>
+      <c r="C390"/>
+      <c r="D390"/>
+      <c r="E390"/>
+      <c r="F390" t="s">
+        <v>12</v>
+      </c>
+      <c r="G390" t="s">
+        <v>9</v>
+      </c>
+      <c r="H390" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>90</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2</v>
+      </c>
+      <c r="C391" t="n">
+        <v>616</v>
+      </c>
+      <c r="D391" t="n">
+        <v>846</v>
+      </c>
+      <c r="E391" t="n">
+        <v>230</v>
+      </c>
+      <c r="F391" t="s">
+        <v>13</v>
+      </c>
+      <c r="G391" t="s">
+        <v>9</v>
+      </c>
+      <c r="H391" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>91</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2</v>
+      </c>
+      <c r="C392" t="n">
+        <v>393</v>
+      </c>
+      <c r="D392" t="n">
+        <v>637</v>
+      </c>
+      <c r="E392" t="n">
+        <v>244</v>
+      </c>
+      <c r="F392" t="s">
+        <v>13</v>
+      </c>
+      <c r="G392" t="s">
+        <v>9</v>
+      </c>
+      <c r="H392" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>92</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2</v>
+      </c>
+      <c r="C393" t="n">
+        <v>406</v>
+      </c>
+      <c r="D393" t="n">
+        <v>637</v>
+      </c>
+      <c r="E393" t="n">
+        <v>231</v>
+      </c>
+      <c r="F393" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" t="s">
+        <v>9</v>
+      </c>
+      <c r="H393" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>93</v>
+      </c>
+      <c r="B394" t="n">
+        <v>3</v>
+      </c>
+      <c r="C394"/>
+      <c r="D394"/>
+      <c r="E394"/>
+      <c r="F394" t="s">
+        <v>12</v>
+      </c>
+      <c r="G394" t="s">
+        <v>9</v>
+      </c>
+      <c r="H394" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>94</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2</v>
+      </c>
+      <c r="C395" t="n">
+        <v>312</v>
+      </c>
+      <c r="D395" t="n">
+        <v>561</v>
+      </c>
+      <c r="E395" t="n">
+        <v>249</v>
+      </c>
+      <c r="F395" t="s">
+        <v>13</v>
+      </c>
+      <c r="G395" t="s">
+        <v>9</v>
+      </c>
+      <c r="H395" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>95</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2</v>
+      </c>
+      <c r="C396" t="n">
+        <v>417</v>
+      </c>
+      <c r="D396" t="n">
+        <v>642</v>
+      </c>
+      <c r="E396" t="n">
+        <v>225</v>
+      </c>
+      <c r="F396" t="s">
+        <v>13</v>
+      </c>
+      <c r="G396" t="s">
+        <v>9</v>
+      </c>
+      <c r="H396" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>96</v>
+      </c>
+      <c r="B397" t="n">
+        <v>3</v>
+      </c>
+      <c r="C397"/>
+      <c r="D397"/>
+      <c r="E397"/>
+      <c r="F397" t="s">
+        <v>12</v>
+      </c>
+      <c r="G397" t="s">
+        <v>9</v>
+      </c>
+      <c r="H397" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>97</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2</v>
+      </c>
+      <c r="C398" t="n">
+        <v>319</v>
+      </c>
+      <c r="D398" t="n">
+        <v>522</v>
+      </c>
+      <c r="E398" t="n">
+        <v>203</v>
+      </c>
+      <c r="F398" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398" t="s">
+        <v>9</v>
+      </c>
+      <c r="H398" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>98</v>
+      </c>
+      <c r="B399" t="n">
+        <v>3</v>
+      </c>
+      <c r="C399"/>
+      <c r="D399"/>
+      <c r="E399"/>
+      <c r="F399" t="s">
+        <v>12</v>
+      </c>
+      <c r="G399" t="s">
+        <v>11</v>
+      </c>
+      <c r="H399" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>99</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2</v>
+      </c>
+      <c r="C400" t="n">
+        <v>327</v>
+      </c>
+      <c r="D400" t="n">
+        <v>580</v>
+      </c>
+      <c r="E400" t="n">
+        <v>253</v>
+      </c>
+      <c r="F400" t="s">
+        <v>13</v>
+      </c>
+      <c r="G400" t="s">
+        <v>9</v>
+      </c>
+      <c r="H400" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>100</v>
+      </c>
+      <c r="B401" t="n">
+        <v>3</v>
+      </c>
+      <c r="C401"/>
+      <c r="D401"/>
+      <c r="E401"/>
+      <c r="F401" t="s">
+        <v>12</v>
+      </c>
+      <c r="G401" t="s">
+        <v>9</v>
+      </c>
+      <c r="H401" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>101</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2</v>
+      </c>
+      <c r="C402" t="n">
+        <v>329</v>
+      </c>
+      <c r="D402" t="n">
+        <v>542</v>
+      </c>
+      <c r="E402" t="n">
+        <v>213</v>
+      </c>
+      <c r="F402" t="s">
+        <v>13</v>
+      </c>
+      <c r="G402" t="s">
+        <v>9</v>
+      </c>
+      <c r="H402" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>102</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2</v>
+      </c>
+      <c r="C403" t="n">
+        <v>619</v>
+      </c>
+      <c r="D403" t="n">
+        <v>851</v>
+      </c>
+      <c r="E403" t="n">
+        <v>232</v>
+      </c>
+      <c r="F403" t="s">
+        <v>13</v>
+      </c>
+      <c r="G403" t="s">
+        <v>9</v>
+      </c>
+      <c r="H403" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>103</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2</v>
+      </c>
+      <c r="C404" t="n">
+        <v>546</v>
+      </c>
+      <c r="D404" t="n">
+        <v>781</v>
+      </c>
+      <c r="E404" t="n">
+        <v>235</v>
+      </c>
+      <c r="F404" t="s">
+        <v>13</v>
+      </c>
+      <c r="G404" t="s">
+        <v>9</v>
+      </c>
+      <c r="H404" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>104</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2</v>
+      </c>
+      <c r="C405" t="n">
+        <v>412</v>
+      </c>
+      <c r="D405" t="n">
+        <v>659</v>
+      </c>
+      <c r="E405" t="n">
+        <v>247</v>
+      </c>
+      <c r="F405" t="s">
+        <v>13</v>
+      </c>
+      <c r="G405" t="s">
+        <v>9</v>
+      </c>
+      <c r="H405" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>105</v>
+      </c>
+      <c r="B406" t="n">
+        <v>3</v>
+      </c>
+      <c r="C406"/>
+      <c r="D406"/>
+      <c r="E406"/>
+      <c r="F406" t="s">
+        <v>12</v>
+      </c>
+      <c r="G406" t="s">
+        <v>9</v>
+      </c>
+      <c r="H406" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>106</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2</v>
+      </c>
+      <c r="C407" t="n">
+        <v>311</v>
+      </c>
+      <c r="D407" t="n">
+        <v>544</v>
+      </c>
+      <c r="E407" t="n">
+        <v>233</v>
+      </c>
+      <c r="F407" t="s">
+        <v>13</v>
+      </c>
+      <c r="G407" t="s">
+        <v>9</v>
+      </c>
+      <c r="H407" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>107</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2</v>
+      </c>
+      <c r="C408" t="n">
+        <v>471</v>
+      </c>
+      <c r="D408" t="n">
+        <v>665</v>
+      </c>
+      <c r="E408" t="n">
+        <v>194</v>
+      </c>
+      <c r="F408" t="s">
+        <v>13</v>
+      </c>
+      <c r="G408" t="s">
+        <v>9</v>
+      </c>
+      <c r="H408" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>108</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2</v>
+      </c>
+      <c r="C409" t="n">
+        <v>488</v>
+      </c>
+      <c r="D409" t="n">
+        <v>697</v>
+      </c>
+      <c r="E409" t="n">
+        <v>209</v>
+      </c>
+      <c r="F409" t="s">
+        <v>13</v>
+      </c>
+      <c r="G409" t="s">
+        <v>9</v>
+      </c>
+      <c r="H409" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>109</v>
+      </c>
+      <c r="B410" t="n">
+        <v>3</v>
+      </c>
+      <c r="C410"/>
+      <c r="D410"/>
+      <c r="E410"/>
+      <c r="F410" t="s">
+        <v>12</v>
+      </c>
+      <c r="G410" t="s">
+        <v>9</v>
+      </c>
+      <c r="H410" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>110</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2</v>
+      </c>
+      <c r="C411" t="n">
+        <v>396</v>
+      </c>
+      <c r="D411" t="n">
+        <v>624</v>
+      </c>
+      <c r="E411" t="n">
+        <v>228</v>
+      </c>
+      <c r="F411" t="s">
+        <v>13</v>
+      </c>
+      <c r="G411" t="s">
+        <v>9</v>
+      </c>
+      <c r="H411" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>111</v>
+      </c>
+      <c r="B412" t="n">
+        <v>3</v>
+      </c>
+      <c r="C412"/>
+      <c r="D412"/>
+      <c r="E412"/>
+      <c r="F412" t="s">
+        <v>12</v>
+      </c>
+      <c r="G412" t="s">
+        <v>9</v>
+      </c>
+      <c r="H412" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>112</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2</v>
+      </c>
+      <c r="C413" t="n">
+        <v>292</v>
+      </c>
+      <c r="D413" t="n">
+        <v>484</v>
+      </c>
+      <c r="E413" t="n">
+        <v>192</v>
+      </c>
+      <c r="F413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G413" t="s">
+        <v>9</v>
+      </c>
+      <c r="H413" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>113</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2</v>
+      </c>
+      <c r="C414" t="n">
+        <v>701</v>
+      </c>
+      <c r="D414" t="n">
+        <v>945</v>
+      </c>
+      <c r="E414" t="n">
+        <v>244</v>
+      </c>
+      <c r="F414" t="s">
+        <v>13</v>
+      </c>
+      <c r="G414" t="s">
+        <v>9</v>
+      </c>
+      <c r="H414" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>114</v>
+      </c>
+      <c r="B415" t="n">
+        <v>3</v>
+      </c>
+      <c r="C415"/>
+      <c r="D415"/>
+      <c r="E415"/>
+      <c r="F415" t="s">
+        <v>12</v>
+      </c>
+      <c r="G415" t="s">
+        <v>9</v>
+      </c>
+      <c r="H415" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>115</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2</v>
+      </c>
+      <c r="C416" t="n">
+        <v>340</v>
+      </c>
+      <c r="D416" t="n">
+        <v>569</v>
+      </c>
+      <c r="E416" t="n">
+        <v>229</v>
+      </c>
+      <c r="F416" t="s">
+        <v>13</v>
+      </c>
+      <c r="G416" t="s">
+        <v>9</v>
+      </c>
+      <c r="H416" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>116</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2</v>
+      </c>
+      <c r="C417" t="n">
+        <v>510</v>
+      </c>
+      <c r="D417" t="n">
+        <v>784</v>
+      </c>
+      <c r="E417" t="n">
+        <v>274</v>
+      </c>
+      <c r="F417" t="s">
+        <v>13</v>
+      </c>
+      <c r="G417" t="s">
+        <v>9</v>
+      </c>
+      <c r="H417" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>117</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2</v>
+      </c>
+      <c r="C418" t="n">
+        <v>411</v>
+      </c>
+      <c r="D418" t="n">
+        <v>639</v>
+      </c>
+      <c r="E418" t="n">
+        <v>228</v>
+      </c>
+      <c r="F418" t="s">
+        <v>13</v>
+      </c>
+      <c r="G418" t="s">
+        <v>9</v>
+      </c>
+      <c r="H418" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>118</v>
+      </c>
+      <c r="B419" t="n">
+        <v>3</v>
+      </c>
+      <c r="C419"/>
+      <c r="D419"/>
+      <c r="E419"/>
+      <c r="F419" t="s">
+        <v>12</v>
+      </c>
+      <c r="G419" t="s">
+        <v>9</v>
+      </c>
+      <c r="H419" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>119</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2</v>
+      </c>
+      <c r="C420" t="n">
+        <v>300</v>
+      </c>
+      <c r="D420" t="n">
+        <v>584</v>
+      </c>
+      <c r="E420" t="n">
+        <v>284</v>
+      </c>
+      <c r="F420" t="s">
+        <v>13</v>
+      </c>
+      <c r="G420" t="s">
+        <v>9</v>
+      </c>
+      <c r="H420" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>120</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2</v>
+      </c>
+      <c r="C421" t="n">
+        <v>373</v>
+      </c>
+      <c r="D421" t="n">
+        <v>606</v>
+      </c>
+      <c r="E421" t="n">
+        <v>233</v>
+      </c>
+      <c r="F421" t="s">
+        <v>13</v>
+      </c>
+      <c r="G421" t="s">
+        <v>9</v>
+      </c>
+      <c r="H421" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>121</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2</v>
+      </c>
+      <c r="C422" t="n">
+        <v>354</v>
+      </c>
+      <c r="D422" t="n">
+        <v>590</v>
+      </c>
+      <c r="E422" t="n">
+        <v>236</v>
+      </c>
+      <c r="F422" t="s">
+        <v>13</v>
+      </c>
+      <c r="G422" t="s">
+        <v>9</v>
+      </c>
+      <c r="H422" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>122</v>
+      </c>
+      <c r="B423" t="n">
+        <v>2</v>
+      </c>
+      <c r="C423" t="n">
+        <v>424</v>
+      </c>
+      <c r="D423" t="n">
+        <v>661</v>
+      </c>
+      <c r="E423" t="n">
+        <v>237</v>
+      </c>
+      <c r="F423" t="s">
+        <v>13</v>
+      </c>
+      <c r="G423" t="s">
+        <v>9</v>
+      </c>
+      <c r="H423" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>123</v>
+      </c>
+      <c r="B424" t="n">
+        <v>3</v>
+      </c>
+      <c r="C424"/>
+      <c r="D424"/>
+      <c r="E424"/>
+      <c r="F424" t="s">
+        <v>12</v>
+      </c>
+      <c r="G424" t="s">
+        <v>9</v>
+      </c>
+      <c r="H424" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>124</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2</v>
+      </c>
+      <c r="C425" t="n">
+        <v>760</v>
+      </c>
+      <c r="D425"/>
+      <c r="E425"/>
+      <c r="F425" t="s">
+        <v>13</v>
+      </c>
+      <c r="G425" t="s">
+        <v>9</v>
+      </c>
+      <c r="H425" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>125</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2</v>
+      </c>
+      <c r="C426" t="n">
+        <v>655</v>
+      </c>
+      <c r="D426" t="n">
+        <v>914</v>
+      </c>
+      <c r="E426" t="n">
+        <v>259</v>
+      </c>
+      <c r="F426" t="s">
+        <v>13</v>
+      </c>
+      <c r="G426" t="s">
+        <v>9</v>
+      </c>
+      <c r="H426" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>126</v>
+      </c>
+      <c r="B427" t="n">
+        <v>3</v>
+      </c>
+      <c r="C427"/>
+      <c r="D427"/>
+      <c r="E427"/>
+      <c r="F427" t="s">
+        <v>12</v>
+      </c>
+      <c r="G427" t="s">
+        <v>9</v>
+      </c>
+      <c r="H427" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>127</v>
+      </c>
+      <c r="B428" t="n">
+        <v>3</v>
+      </c>
+      <c r="C428"/>
+      <c r="D428"/>
+      <c r="E428"/>
+      <c r="F428" t="s">
+        <v>12</v>
+      </c>
+      <c r="G428" t="s">
+        <v>11</v>
+      </c>
+      <c r="H428" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>128</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2</v>
+      </c>
+      <c r="C429" t="n">
+        <v>360</v>
+      </c>
+      <c r="D429" t="n">
+        <v>622</v>
+      </c>
+      <c r="E429" t="n">
+        <v>262</v>
+      </c>
+      <c r="F429" t="s">
+        <v>13</v>
+      </c>
+      <c r="G429" t="s">
+        <v>9</v>
+      </c>
+      <c r="H429" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>129</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2</v>
+      </c>
+      <c r="C430" t="n">
+        <v>366</v>
+      </c>
+      <c r="D430" t="n">
+        <v>604</v>
+      </c>
+      <c r="E430" t="n">
+        <v>238</v>
+      </c>
+      <c r="F430" t="s">
+        <v>13</v>
+      </c>
+      <c r="G430" t="s">
+        <v>9</v>
+      </c>
+      <c r="H430" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>130</v>
+      </c>
+      <c r="B431" t="n">
+        <v>3</v>
+      </c>
+      <c r="C431"/>
+      <c r="D431"/>
+      <c r="E431"/>
+      <c r="F431" t="s">
+        <v>12</v>
+      </c>
+      <c r="G431" t="s">
+        <v>11</v>
+      </c>
+      <c r="H431" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>131</v>
+      </c>
+      <c r="B432" t="n">
+        <v>2</v>
+      </c>
+      <c r="C432" t="n">
+        <v>592</v>
+      </c>
+      <c r="D432" t="n">
+        <v>854</v>
+      </c>
+      <c r="E432" t="n">
+        <v>262</v>
+      </c>
+      <c r="F432" t="s">
+        <v>13</v>
+      </c>
+      <c r="G432" t="s">
+        <v>9</v>
+      </c>
+      <c r="H432" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>132</v>
+      </c>
+      <c r="B433" t="n">
+        <v>2</v>
+      </c>
+      <c r="C433" t="n">
+        <v>429</v>
+      </c>
+      <c r="D433" t="n">
+        <v>689</v>
+      </c>
+      <c r="E433" t="n">
+        <v>260</v>
+      </c>
+      <c r="F433" t="s">
+        <v>13</v>
+      </c>
+      <c r="G433" t="s">
+        <v>9</v>
+      </c>
+      <c r="H433" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>133</v>
+      </c>
+      <c r="B434" t="n">
+        <v>2</v>
+      </c>
+      <c r="C434" t="n">
+        <v>546</v>
+      </c>
+      <c r="D434" t="n">
+        <v>798</v>
+      </c>
+      <c r="E434" t="n">
+        <v>252</v>
+      </c>
+      <c r="F434" t="s">
+        <v>13</v>
+      </c>
+      <c r="G434" t="s">
+        <v>9</v>
+      </c>
+      <c r="H434" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>134</v>
+      </c>
+      <c r="B435" t="n">
+        <v>3</v>
+      </c>
+      <c r="C435"/>
+      <c r="D435"/>
+      <c r="E435"/>
+      <c r="F435" t="s">
+        <v>12</v>
+      </c>
+      <c r="G435" t="s">
+        <v>9</v>
+      </c>
+      <c r="H435" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>135</v>
+      </c>
+      <c r="B436" t="n">
+        <v>2</v>
+      </c>
+      <c r="C436" t="n">
+        <v>487</v>
+      </c>
+      <c r="D436" t="n">
+        <v>735</v>
+      </c>
+      <c r="E436" t="n">
+        <v>248</v>
+      </c>
+      <c r="F436" t="s">
+        <v>13</v>
+      </c>
+      <c r="G436" t="s">
+        <v>9</v>
+      </c>
+      <c r="H436" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>136</v>
+      </c>
+      <c r="B437" t="n">
+        <v>3</v>
+      </c>
+      <c r="C437"/>
+      <c r="D437"/>
+      <c r="E437"/>
+      <c r="F437" t="s">
+        <v>12</v>
+      </c>
+      <c r="G437" t="s">
+        <v>9</v>
+      </c>
+      <c r="H437" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>137</v>
+      </c>
+      <c r="B438" t="n">
+        <v>2</v>
+      </c>
+      <c r="C438" t="n">
+        <v>330</v>
+      </c>
+      <c r="D438" t="n">
+        <v>571</v>
+      </c>
+      <c r="E438" t="n">
+        <v>241</v>
+      </c>
+      <c r="F438" t="s">
+        <v>13</v>
+      </c>
+      <c r="G438" t="s">
+        <v>9</v>
+      </c>
+      <c r="H438" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>138</v>
+      </c>
+      <c r="B439" t="n">
+        <v>2</v>
+      </c>
+      <c r="C439" t="n">
+        <v>384</v>
+      </c>
+      <c r="D439" t="n">
+        <v>633</v>
+      </c>
+      <c r="E439" t="n">
+        <v>249</v>
+      </c>
+      <c r="F439" t="s">
+        <v>13</v>
+      </c>
+      <c r="G439" t="s">
+        <v>9</v>
+      </c>
+      <c r="H439" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>139</v>
+      </c>
+      <c r="B440" t="n">
+        <v>2</v>
+      </c>
+      <c r="C440" t="n">
+        <v>422</v>
+      </c>
+      <c r="D440" t="n">
+        <v>671</v>
+      </c>
+      <c r="E440" t="n">
+        <v>249</v>
+      </c>
+      <c r="F440" t="s">
+        <v>13</v>
+      </c>
+      <c r="G440" t="s">
+        <v>9</v>
+      </c>
+      <c r="H440" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>140</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2</v>
+      </c>
+      <c r="C441" t="n">
+        <v>323</v>
+      </c>
+      <c r="D441" t="n">
+        <v>589</v>
+      </c>
+      <c r="E441" t="n">
+        <v>266</v>
+      </c>
+      <c r="F441" t="s">
+        <v>13</v>
+      </c>
+      <c r="G441" t="s">
+        <v>9</v>
+      </c>
+      <c r="H441" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>141</v>
+      </c>
+      <c r="B442" t="n">
+        <v>3</v>
+      </c>
+      <c r="C442"/>
+      <c r="D442"/>
+      <c r="E442"/>
+      <c r="F442" t="s">
+        <v>12</v>
+      </c>
+      <c r="G442" t="s">
+        <v>9</v>
+      </c>
+      <c r="H442" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>142</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2</v>
+      </c>
+      <c r="C443" t="n">
+        <v>658</v>
+      </c>
+      <c r="D443" t="n">
+        <v>983</v>
+      </c>
+      <c r="E443" t="n">
+        <v>325</v>
+      </c>
+      <c r="F443" t="s">
+        <v>13</v>
+      </c>
+      <c r="G443" t="s">
+        <v>9</v>
+      </c>
+      <c r="H443" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>143</v>
+      </c>
+      <c r="B444" t="n">
+        <v>3</v>
+      </c>
+      <c r="C444"/>
+      <c r="D444"/>
+      <c r="E444"/>
+      <c r="F444" t="s">
+        <v>12</v>
+      </c>
+      <c r="G444" t="s">
+        <v>9</v>
+      </c>
+      <c r="H444" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>144</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2</v>
+      </c>
+      <c r="C445" t="n">
+        <v>390</v>
+      </c>
+      <c r="D445" t="n">
+        <v>624</v>
+      </c>
+      <c r="E445" t="n">
+        <v>234</v>
+      </c>
+      <c r="F445" t="s">
+        <v>13</v>
+      </c>
+      <c r="G445" t="s">
+        <v>9</v>
+      </c>
+      <c r="H445" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>145</v>
+      </c>
+      <c r="B446" t="n">
+        <v>2</v>
+      </c>
+      <c r="C446" t="n">
+        <v>406</v>
+      </c>
+      <c r="D446" t="n">
+        <v>720</v>
+      </c>
+      <c r="E446" t="n">
+        <v>314</v>
+      </c>
+      <c r="F446" t="s">
+        <v>13</v>
+      </c>
+      <c r="G446" t="s">
+        <v>9</v>
+      </c>
+      <c r="H446" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>146</v>
+      </c>
+      <c r="B447" t="n">
+        <v>2</v>
+      </c>
+      <c r="C447" t="n">
+        <v>429</v>
+      </c>
+      <c r="D447" t="n">
+        <v>728</v>
+      </c>
+      <c r="E447" t="n">
+        <v>299</v>
+      </c>
+      <c r="F447" t="s">
+        <v>13</v>
+      </c>
+      <c r="G447" t="s">
+        <v>9</v>
+      </c>
+      <c r="H447" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>147</v>
+      </c>
+      <c r="B448" t="n">
+        <v>2</v>
+      </c>
+      <c r="C448" t="n">
+        <v>440</v>
+      </c>
+      <c r="D448" t="n">
+        <v>711</v>
+      </c>
+      <c r="E448" t="n">
+        <v>271</v>
+      </c>
+      <c r="F448" t="s">
+        <v>13</v>
+      </c>
+      <c r="G448" t="s">
+        <v>9</v>
+      </c>
+      <c r="H448" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>148</v>
+      </c>
+      <c r="B449" t="n">
+        <v>3</v>
+      </c>
+      <c r="C449"/>
+      <c r="D449"/>
+      <c r="E449"/>
+      <c r="F449" t="s">
+        <v>12</v>
+      </c>
+      <c r="G449" t="s">
+        <v>9</v>
+      </c>
+      <c r="H449" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>149</v>
+      </c>
+      <c r="B450" t="n">
+        <v>2</v>
+      </c>
+      <c r="C450" t="n">
+        <v>338</v>
+      </c>
+      <c r="D450" t="n">
+        <v>639</v>
+      </c>
+      <c r="E450" t="n">
+        <v>301</v>
+      </c>
+      <c r="F450" t="s">
+        <v>13</v>
+      </c>
+      <c r="G450" t="s">
+        <v>9</v>
+      </c>
+      <c r="H450" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>150</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2</v>
+      </c>
+      <c r="C451" t="n">
+        <v>545</v>
+      </c>
+      <c r="D451" t="n">
+        <v>813</v>
+      </c>
+      <c r="E451" t="n">
+        <v>268</v>
+      </c>
+      <c r="F451" t="s">
+        <v>13</v>
+      </c>
+      <c r="G451" t="s">
+        <v>9</v>
+      </c>
+      <c r="H451" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
